--- a/src/tools/conf2conv/excel/exptower.xlsx
+++ b/src/tools/conf2conv/excel/exptower.xlsx
@@ -1,43 +1,499 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowWidth="26145" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+  <si>
+    <t>表ID</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>怪物强度</t>
+  </si>
+  <si>
+    <t>层数</t>
+  </si>
+  <si>
+    <t>怪物群</t>
+  </si>
+  <si>
+    <t>掉落数量</t>
+  </si>
+  <si>
+    <t>奖励内容</t>
+  </si>
+  <si>
+    <t>地图BUFF</t>
+  </si>
+  <si>
+    <t>地图特效</t>
+  </si>
+  <si>
+    <t>场景资源</t>
+  </si>
+  <si>
+    <t>怪物数量</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tpye</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>DropNumber</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>极易</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3:2500;4:5500;5:2000</t>
+  </si>
+  <si>
+    <t>11099:1:2333;11099:1:2333;11099:1:2333;21099:1:1500;21099:1:1500</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>11099:1:2000;21099:1:2000;21099:1:2000;21099:1:2000;21099:1:2000</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>21099:1:2667;21099:1:2667;31099:1:1000;31099:1:1000;31099:1:1000</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>21099:1:3000;31099:1:1750;31099:1:1750;31099:1:1750;31099:1:1750</t>
+  </si>
+  <si>
+    <t>噩梦</t>
+  </si>
+  <si>
+    <t>31099:1:2125;31099:1:2125;31099:1:2125;31099:1:2125;41099:1:1500</t>
+  </si>
+  <si>
+    <t>地狱</t>
+  </si>
+  <si>
+    <t>31099:1:2750;31099:1:2750;41099:1:1500;41099:1:1500;41099:1:1500</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,18 +501,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -103,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -138,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -312,132 +1062,138 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="20.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="65.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>表ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>类别</v>
-      </c>
-      <c r="C1" t="str">
-        <v>怪物强度</v>
-      </c>
-      <c r="D1" t="str">
-        <v>层数</v>
-      </c>
-      <c r="E1" t="str">
-        <v>怪物群</v>
-      </c>
-      <c r="F1" t="str">
-        <v>掉落数量</v>
-      </c>
-      <c r="G1" t="str">
-        <v>奖励内容</v>
-      </c>
-      <c r="H1" t="str">
-        <v>地图BUFF</v>
-      </c>
-      <c r="I1" t="str">
-        <v>地图特效</v>
-      </c>
-      <c r="J1" t="str">
-        <v>场景资源</v>
-      </c>
-      <c r="K1" t="str">
-        <v>怪物数量</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Tpye</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Level</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Number</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Monster</v>
-      </c>
-      <c r="F2" t="str">
-        <v>DropNumber</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Reward</v>
-      </c>
-      <c r="H2" t="str">
-        <v>BUFF</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Trap</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Map</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Quantity</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>int</v>
-      </c>
-      <c r="B3" t="str">
-        <v>int</v>
-      </c>
-      <c r="C3" t="str">
-        <v>string</v>
-      </c>
-      <c r="D3" t="str">
-        <v>int</v>
-      </c>
-      <c r="E3" t="str">
-        <v>int</v>
-      </c>
-      <c r="F3" t="str">
-        <v>int</v>
-      </c>
-      <c r="G3" t="str">
-        <v>int</v>
-      </c>
-      <c r="H3" t="str">
-        <v>int</v>
-      </c>
-      <c r="I3" t="str">
-        <v>int</v>
-      </c>
-      <c r="J3" t="str">
-        <v>int</v>
-      </c>
-      <c r="K3" t="str">
-        <v>int</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="str">
-        <v>极易</v>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -464,15 +1220,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="str">
-        <v>极易</v>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -499,15 +1255,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="str">
-        <v>极易</v>
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -534,15 +1290,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="str">
-        <v>极易</v>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7">
         <v>31</v>
@@ -569,15 +1325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="str">
-        <v>极易</v>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="D8">
         <v>41</v>
@@ -604,15 +1360,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="str">
-        <v>极易</v>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
       <c r="D9">
         <v>51</v>
@@ -639,15 +1395,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="str">
-        <v>极易</v>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
       <c r="D10">
         <v>61</v>
@@ -674,15 +1430,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="str">
-        <v>极易</v>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
       <c r="D11">
         <v>71</v>
@@ -709,15 +1465,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="str">
-        <v>极易</v>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
       <c r="D12">
         <v>81</v>
@@ -744,15 +1500,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="str">
-        <v>极易</v>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
       <c r="D13">
         <v>91</v>
@@ -779,25 +1535,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="str">
-        <v>极易</v>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
-      <c r="E14" t="str"/>
-      <c r="F14" t="str">
-        <v>3:2500;4:5500;5:2000</v>
-      </c>
-      <c r="G14" t="str">
-        <v>11099:1:2333;11099:1:2333;11099:1:2333;21099:1:1500;21099:1:1500</v>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -812,15 +1570,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="str">
-        <v>简单</v>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -847,15 +1605,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="str">
-        <v>简单</v>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -882,15 +1640,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="str">
-        <v>简单</v>
+      <c r="C17" t="s">
+        <v>28</v>
       </c>
       <c r="D17">
         <v>21</v>
@@ -917,15 +1675,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="str">
-        <v>简单</v>
+      <c r="C18" t="s">
+        <v>28</v>
       </c>
       <c r="D18">
         <v>31</v>
@@ -952,15 +1710,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="str">
-        <v>简单</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
       <c r="D19">
         <v>41</v>
@@ -987,15 +1745,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="str">
-        <v>简单</v>
+      <c r="C20" t="s">
+        <v>28</v>
       </c>
       <c r="D20">
         <v>51</v>
@@ -1022,15 +1780,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="str">
-        <v>简单</v>
+      <c r="C21" t="s">
+        <v>28</v>
       </c>
       <c r="D21">
         <v>61</v>
@@ -1057,15 +1815,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" t="str">
-        <v>简单</v>
+      <c r="C22" t="s">
+        <v>28</v>
       </c>
       <c r="D22">
         <v>71</v>
@@ -1092,15 +1850,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="str">
-        <v>简单</v>
+      <c r="C23" t="s">
+        <v>28</v>
       </c>
       <c r="D23">
         <v>81</v>
@@ -1127,15 +1885,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="str">
-        <v>简单</v>
+      <c r="C24" t="s">
+        <v>28</v>
       </c>
       <c r="D24">
         <v>91</v>
@@ -1162,25 +1920,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" t="str">
-        <v>简单</v>
+      <c r="C25" t="s">
+        <v>28</v>
       </c>
       <c r="D25">
         <v>100</v>
       </c>
-      <c r="E25" t="str"/>
-      <c r="F25" t="str">
-        <v>3:2500;4:5500;5:2000</v>
-      </c>
-      <c r="G25" t="str">
-        <v>11099:1:2000;21099:1:2000;21099:1:2000;21099:1:2000;21099:1:2000</v>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1195,15 +1955,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" t="str">
-        <v>一般</v>
+      <c r="C26" t="s">
+        <v>30</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1230,15 +1990,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" t="str">
-        <v>一般</v>
+      <c r="C27" t="s">
+        <v>30</v>
       </c>
       <c r="D27">
         <v>11</v>
@@ -1265,15 +2025,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" t="str">
-        <v>一般</v>
+      <c r="C28" t="s">
+        <v>30</v>
       </c>
       <c r="D28">
         <v>21</v>
@@ -1300,15 +2060,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" t="str">
-        <v>一般</v>
+      <c r="C29" t="s">
+        <v>30</v>
       </c>
       <c r="D29">
         <v>31</v>
@@ -1335,15 +2095,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" t="str">
-        <v>一般</v>
+      <c r="C30" t="s">
+        <v>30</v>
       </c>
       <c r="D30">
         <v>41</v>
@@ -1370,15 +2130,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
-      <c r="C31" t="str">
-        <v>一般</v>
+      <c r="C31" t="s">
+        <v>30</v>
       </c>
       <c r="D31">
         <v>51</v>
@@ -1405,15 +2165,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" t="str">
-        <v>一般</v>
+      <c r="C32" t="s">
+        <v>30</v>
       </c>
       <c r="D32">
         <v>61</v>
@@ -1440,15 +2200,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33" t="str">
-        <v>一般</v>
+      <c r="C33" t="s">
+        <v>30</v>
       </c>
       <c r="D33">
         <v>71</v>
@@ -1475,15 +2235,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" t="str">
-        <v>一般</v>
+      <c r="C34" t="s">
+        <v>30</v>
       </c>
       <c r="D34">
         <v>81</v>
@@ -1510,15 +2270,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-      <c r="C35" t="str">
-        <v>一般</v>
+      <c r="C35" t="s">
+        <v>30</v>
       </c>
       <c r="D35">
         <v>91</v>
@@ -1545,25 +2305,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36" t="str">
-        <v>一般</v>
+      <c r="C36" t="s">
+        <v>30</v>
       </c>
       <c r="D36">
         <v>100</v>
       </c>
-      <c r="E36" t="str"/>
-      <c r="F36" t="str">
-        <v>3:2500;4:5500;5:2000</v>
-      </c>
-      <c r="G36" t="str">
-        <v>21099:1:2667;21099:1:2667;31099:1:1000;31099:1:1000;31099:1:1000</v>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1578,15 +2340,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37" t="str">
-        <v>困难</v>
+      <c r="C37" t="s">
+        <v>32</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1613,15 +2375,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="C38" t="str">
-        <v>困难</v>
+      <c r="C38" t="s">
+        <v>32</v>
       </c>
       <c r="D38">
         <v>11</v>
@@ -1648,15 +2410,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" t="str">
-        <v>困难</v>
+      <c r="C39" t="s">
+        <v>32</v>
       </c>
       <c r="D39">
         <v>21</v>
@@ -1683,15 +2445,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="C40" t="str">
-        <v>困难</v>
+      <c r="C40" t="s">
+        <v>32</v>
       </c>
       <c r="D40">
         <v>31</v>
@@ -1718,15 +2480,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" t="str">
-        <v>困难</v>
+      <c r="C41" t="s">
+        <v>32</v>
       </c>
       <c r="D41">
         <v>41</v>
@@ -1753,15 +2515,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" t="str">
-        <v>困难</v>
+      <c r="C42" t="s">
+        <v>32</v>
       </c>
       <c r="D42">
         <v>51</v>
@@ -1788,15 +2550,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
-      <c r="C43" t="str">
-        <v>困难</v>
+      <c r="C43" t="s">
+        <v>32</v>
       </c>
       <c r="D43">
         <v>61</v>
@@ -1823,15 +2585,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" t="str">
-        <v>困难</v>
+      <c r="C44" t="s">
+        <v>32</v>
       </c>
       <c r="D44">
         <v>71</v>
@@ -1858,15 +2620,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="C45" t="str">
-        <v>困难</v>
+      <c r="C45" t="s">
+        <v>32</v>
       </c>
       <c r="D45">
         <v>81</v>
@@ -1893,15 +2655,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
-      <c r="C46" t="str">
-        <v>困难</v>
+      <c r="C46" t="s">
+        <v>32</v>
       </c>
       <c r="D46">
         <v>91</v>
@@ -1928,25 +2690,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-      <c r="C47" t="str">
-        <v>困难</v>
+      <c r="C47" t="s">
+        <v>32</v>
       </c>
       <c r="D47">
         <v>100</v>
       </c>
-      <c r="E47" t="str"/>
-      <c r="F47" t="str">
-        <v>3:2500;4:5500;5:2000</v>
-      </c>
-      <c r="G47" t="str">
-        <v>21099:1:3000;31099:1:1750;31099:1:1750;31099:1:1750;31099:1:1750</v>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1961,15 +2725,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
-      <c r="C48" t="str">
-        <v>噩梦</v>
+      <c r="C48" t="s">
+        <v>34</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1996,15 +2760,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49" t="str">
-        <v>噩梦</v>
+      <c r="C49" t="s">
+        <v>34</v>
       </c>
       <c r="D49">
         <v>11</v>
@@ -2031,15 +2795,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50" t="str">
-        <v>噩梦</v>
+      <c r="C50" t="s">
+        <v>34</v>
       </c>
       <c r="D50">
         <v>21</v>
@@ -2066,15 +2830,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
-      <c r="C51" t="str">
-        <v>噩梦</v>
+      <c r="C51" t="s">
+        <v>34</v>
       </c>
       <c r="D51">
         <v>31</v>
@@ -2101,15 +2865,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52" t="str">
-        <v>噩梦</v>
+      <c r="C52" t="s">
+        <v>34</v>
       </c>
       <c r="D52">
         <v>41</v>
@@ -2136,15 +2900,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
-      <c r="C53" t="str">
-        <v>噩梦</v>
+      <c r="C53" t="s">
+        <v>34</v>
       </c>
       <c r="D53">
         <v>51</v>
@@ -2171,15 +2935,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54" t="str">
-        <v>噩梦</v>
+      <c r="C54" t="s">
+        <v>34</v>
       </c>
       <c r="D54">
         <v>61</v>
@@ -2206,15 +2970,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" t="str">
-        <v>噩梦</v>
+      <c r="C55" t="s">
+        <v>34</v>
       </c>
       <c r="D55">
         <v>71</v>
@@ -2241,15 +3005,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56" t="str">
-        <v>噩梦</v>
+      <c r="C56" t="s">
+        <v>34</v>
       </c>
       <c r="D56">
         <v>81</v>
@@ -2276,15 +3040,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
-      <c r="C57" t="str">
-        <v>噩梦</v>
+      <c r="C57" t="s">
+        <v>34</v>
       </c>
       <c r="D57">
         <v>91</v>
@@ -2311,25 +3075,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58" t="str">
-        <v>噩梦</v>
+      <c r="C58" t="s">
+        <v>34</v>
       </c>
       <c r="D58">
         <v>100</v>
       </c>
-      <c r="E58" t="str"/>
-      <c r="F58" t="str">
-        <v>3:2500;4:5500;5:2000</v>
-      </c>
-      <c r="G58" t="str">
-        <v>31099:1:2125;31099:1:2125;31099:1:2125;31099:1:2125;41099:1:1500</v>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2344,15 +3110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
-      <c r="C59" t="str">
-        <v>地狱</v>
+      <c r="C59" t="s">
+        <v>36</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2379,15 +3145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60" t="str">
-        <v>地狱</v>
+      <c r="C60" t="s">
+        <v>36</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -2414,15 +3180,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61" t="str">
-        <v>地狱</v>
+      <c r="C61" t="s">
+        <v>36</v>
       </c>
       <c r="D61">
         <v>21</v>
@@ -2449,15 +3215,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
-      <c r="C62" t="str">
-        <v>地狱</v>
+      <c r="C62" t="s">
+        <v>36</v>
       </c>
       <c r="D62">
         <v>31</v>
@@ -2484,15 +3250,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
-      <c r="C63" t="str">
-        <v>地狱</v>
+      <c r="C63" t="s">
+        <v>36</v>
       </c>
       <c r="D63">
         <v>41</v>
@@ -2519,15 +3285,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
-      <c r="C64" t="str">
-        <v>地狱</v>
+      <c r="C64" t="s">
+        <v>36</v>
       </c>
       <c r="D64">
         <v>51</v>
@@ -2554,15 +3320,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>62</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
-      <c r="C65" t="str">
-        <v>地狱</v>
+      <c r="C65" t="s">
+        <v>36</v>
       </c>
       <c r="D65">
         <v>61</v>
@@ -2589,15 +3355,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
-      <c r="C66" t="str">
-        <v>地狱</v>
+      <c r="C66" t="s">
+        <v>36</v>
       </c>
       <c r="D66">
         <v>71</v>
@@ -2624,15 +3390,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>64</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
-      <c r="C67" t="str">
-        <v>地狱</v>
+      <c r="C67" t="s">
+        <v>36</v>
       </c>
       <c r="D67">
         <v>81</v>
@@ -2659,15 +3425,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>65</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
-      <c r="C68" t="str">
-        <v>地狱</v>
+      <c r="C68" t="s">
+        <v>36</v>
       </c>
       <c r="D68">
         <v>91</v>
@@ -2694,25 +3460,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>66</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69" t="str">
-        <v>地狱</v>
+      <c r="C69" t="s">
+        <v>36</v>
       </c>
       <c r="D69">
         <v>100</v>
       </c>
-      <c r="E69" t="str"/>
-      <c r="F69" t="str">
-        <v>3:2500;4:5500;5:2000</v>
-      </c>
-      <c r="G69" t="str">
-        <v>31099:1:2750;31099:1:2750;41099:1:1500;41099:1:1500;41099:1:1500</v>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2728,5 +3496,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>